--- a/tests/unittest_summary/test_tnorms_summary.xlsx
+++ b/tests/unittest_summary/test_tnorms_summary.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
   <si>
     <t xml:space="preserve">Test Function</t>
   </si>
@@ -200,6 +200,12 @@
   </si>
   <si>
     <t xml:space="preserve">Uses get_tnorm_call_testsets(); converts each (a,b) test pair to scalar, calls TNorm, and compares result with expected scalar value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test_tnorm_matrix_consistency_with_scalar_application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">output correctness when matrix (2d np.array) is passed to be sure lb and ub in itfrs are correct</t>
   </si>
 </sst>
 </file>
@@ -290,7 +296,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -305,6 +311,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -503,19 +513,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="60.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="40.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="79.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="35.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="94.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="54.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="94.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="54.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -753,6 +763,14 @@
       </c>
       <c r="D16" s="1" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
